--- a/config/normalconfig/behaviour_report.xlsx
+++ b/config/normalconfig/behaviour_report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaobinzhou\AppData\Local\princekinConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\qt\newprincekin\config\normalconfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,6 @@
   <sheets>
     <sheet name="总体报告" sheetId="1" r:id="rId1"/>
     <sheet name="url" sheetId="3" r:id="rId2"/>
-    <sheet name="埋点报告" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -355,38 +354,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,8 +708,8 @@
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
@@ -721,8 +720,8 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
@@ -733,8 +732,8 @@
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
@@ -745,22 +744,22 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -769,14 +768,14 @@
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
@@ -787,37 +786,37 @@
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -825,24 +824,24 @@
       <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
@@ -888,6 +887,23 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A5:F5"/>
@@ -897,23 +913,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -949,18 +948,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/config/normalconfig/behaviour_report.xlsx
+++ b/config/normalconfig/behaviour_report.xlsx
@@ -46,10 +46,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  遍历结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试条数</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -146,6 +142,10 @@
   </si>
   <si>
     <t>期望值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  统计结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,38 +354,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,7 +695,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -708,8 +708,8 @@
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
@@ -720,22 +720,22 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -744,38 +744,38 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
@@ -786,66 +786,66 @@
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="A8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="E9" s="18"/>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="23"/>
+        <v>16</v>
+      </c>
+      <c r="E10" s="18"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="12"/>
@@ -855,7 +855,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="12"/>
@@ -865,7 +865,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="12"/>
@@ -875,11 +875,11 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="12"/>
@@ -887,14 +887,15 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="C12:D12"/>
@@ -904,15 +905,14 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -929,19 +929,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
